--- a/biology/Zoologie/Chimerella_mariaelenae/Chimerella_mariaelenae.xlsx
+++ b/biology/Zoologie/Chimerella_mariaelenae/Chimerella_mariaelenae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chimerella mariaelenae est une espèce d'amphibiens de la famille des Centrolenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chimerella mariaelenae est une espèce d'amphibiens de la famille des Centrolenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Équateur[1]. Elle se rencontre dans les provinces de Napo, de Tungurahua, de Morona-Santiago et de Zamora-Chinchipe de 1 400 à 1 820 m d'altitude dans la cordillère Orientale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Équateur. Elle se rencontre dans les provinces de Napo, de Tungurahua, de Morona-Santiago et de Zamora-Chinchipe de 1 400 à 1 820 m d'altitude dans la cordillère Orientale.
 Sa présence est incertaine en Colombie.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 19 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 19 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Maria Elena Heredia, la mère de Diego Francisco Cisneros-Heredia[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Maria Elena Heredia, la mère de Diego Francisco Cisneros-Heredia.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cisneros-Heredia &amp; McDiarmid, 2006 : A new species of the genus Centrolene (Amphibia: Anura: Centrolenidae) from Ecuador with comments on the taxonomy and biogeography of glassfrogs. Zootaxa, no 1244, p. 1-32 (texte intégral).</t>
         </is>
